--- a/Code/Results/Cases/Case_7_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_30/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008323712329356</v>
+        <v>1.008323712329355</v>
       </c>
       <c r="D2">
-        <v>1.02338582962613</v>
+        <v>1.023385829626129</v>
       </c>
       <c r="E2">
-        <v>1.021007863539463</v>
+        <v>1.021007863539462</v>
       </c>
       <c r="F2">
         <v>1.027629904901868</v>
@@ -439,16 +439,16 @@
         <v>1.04469561834289</v>
       </c>
       <c r="J2">
-        <v>1.030258281221256</v>
+        <v>1.030258281221255</v>
       </c>
       <c r="K2">
         <v>1.034528700070342</v>
       </c>
       <c r="L2">
-        <v>1.032182082640418</v>
+        <v>1.032182082640417</v>
       </c>
       <c r="M2">
-        <v>1.038717277313577</v>
+        <v>1.038717277313576</v>
       </c>
       <c r="N2">
         <v>1.031721366152885</v>
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016580625367817</v>
+        <v>1.016580625367818</v>
       </c>
       <c r="D3">
-        <v>1.029654942130749</v>
+        <v>1.02965494213075</v>
       </c>
       <c r="E3">
-        <v>1.028137104588531</v>
+        <v>1.028137104588532</v>
       </c>
       <c r="F3">
-        <v>1.035140474719709</v>
+        <v>1.03514047471971</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,16 +483,16 @@
         <v>1.036629269358451</v>
       </c>
       <c r="K3">
-        <v>1.039921937896938</v>
+        <v>1.039921937896939</v>
       </c>
       <c r="L3">
-        <v>1.038422191826239</v>
+        <v>1.03842219182624</v>
       </c>
       <c r="M3">
-        <v>1.045342634679529</v>
+        <v>1.04534263467953</v>
       </c>
       <c r="N3">
-        <v>1.038101401823979</v>
+        <v>1.03810140182398</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -509,7 +509,7 @@
         <v>1.033583817023526</v>
       </c>
       <c r="E4">
-        <v>1.032609268680468</v>
+        <v>1.032609268680467</v>
       </c>
       <c r="F4">
         <v>1.039852857869439</v>
@@ -521,7 +521,7 @@
         <v>1.048624684113521</v>
       </c>
       <c r="J4">
-        <v>1.04061620536827</v>
+        <v>1.040616205368271</v>
       </c>
       <c r="K4">
         <v>1.043293131429231</v>
@@ -533,7 +533,7 @@
         <v>1.049492958624286</v>
       </c>
       <c r="N4">
-        <v>1.04209399974024</v>
+        <v>1.042093999740241</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023889211474162</v>
+        <v>1.02388921147416</v>
       </c>
       <c r="D5">
-        <v>1.035206688084873</v>
+        <v>1.035206688084871</v>
       </c>
       <c r="E5">
-        <v>1.034457614582959</v>
+        <v>1.034457614582958</v>
       </c>
       <c r="F5">
-        <v>1.041800733011695</v>
+        <v>1.041800733011693</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049243065664296</v>
+        <v>1.049243065664295</v>
       </c>
       <c r="J5">
-        <v>1.04226172882749</v>
+        <v>1.042261728827488</v>
       </c>
       <c r="K5">
-        <v>1.04468355894205</v>
+        <v>1.044683558942048</v>
       </c>
       <c r="L5">
-        <v>1.043942586015729</v>
+        <v>1.043942586015727</v>
       </c>
       <c r="M5">
-        <v>1.051206910394692</v>
+        <v>1.05120691039469</v>
       </c>
       <c r="N5">
-        <v>1.043741860031516</v>
+        <v>1.043741860031514</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,10 +588,10 @@
         <v>1.024245705634712</v>
       </c>
       <c r="D6">
-        <v>1.035477532335637</v>
+        <v>1.035477532335638</v>
       </c>
       <c r="E6">
-        <v>1.034766152521413</v>
+        <v>1.034766152521414</v>
       </c>
       <c r="F6">
         <v>1.04212589963761</v>
@@ -609,13 +609,13 @@
         <v>1.044915487966199</v>
       </c>
       <c r="L6">
-        <v>1.044211762984533</v>
+        <v>1.044211762984534</v>
       </c>
       <c r="M6">
         <v>1.051492933448063</v>
       </c>
       <c r="N6">
-        <v>1.044016798002392</v>
+        <v>1.044016798002393</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,16 +626,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021781729443839</v>
+        <v>1.021781729443841</v>
       </c>
       <c r="D7">
         <v>1.033605613002389</v>
       </c>
       <c r="E7">
-        <v>1.032634088636979</v>
+        <v>1.03263408863698</v>
       </c>
       <c r="F7">
-        <v>1.039879013342866</v>
+        <v>1.039879013342868</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -644,19 +644,19 @@
         <v>1.048633002590872</v>
       </c>
       <c r="J7">
-        <v>1.040638310775878</v>
+        <v>1.040638310775879</v>
       </c>
       <c r="K7">
-        <v>1.043311813813134</v>
+        <v>1.043311813813135</v>
       </c>
       <c r="L7">
-        <v>1.042351103977544</v>
+        <v>1.042351103977545</v>
       </c>
       <c r="M7">
-        <v>1.04951597935918</v>
+        <v>1.049515979359182</v>
       </c>
       <c r="N7">
-        <v>1.042116136540062</v>
+        <v>1.042116136540064</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9909886321958995</v>
+        <v>0.9909886321958983</v>
       </c>
       <c r="D9">
-        <v>1.010240382590645</v>
+        <v>1.010240382590644</v>
       </c>
       <c r="E9">
-        <v>1.006080586228586</v>
+        <v>1.006080586228585</v>
       </c>
       <c r="F9">
-        <v>1.011909708239476</v>
+        <v>1.011909708239475</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.039535814438004</v>
       </c>
       <c r="J9">
-        <v>1.016863668007298</v>
+        <v>1.016863668007297</v>
       </c>
       <c r="K9">
-        <v>1.023169473196013</v>
+        <v>1.023169473196012</v>
       </c>
       <c r="L9">
-        <v>1.019075774533805</v>
+        <v>1.019075774533804</v>
       </c>
       <c r="M9">
-        <v>1.024812469395163</v>
+        <v>1.024812469395161</v>
       </c>
       <c r="N9">
-        <v>1.018307731051761</v>
+        <v>1.01830773105176</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9763854806327661</v>
+        <v>0.9763854806327656</v>
       </c>
       <c r="D10">
-        <v>0.9991905629220642</v>
+        <v>0.9991905629220637</v>
       </c>
       <c r="E10">
-        <v>0.9935496546189796</v>
+        <v>0.9935496546189792</v>
       </c>
       <c r="F10">
-        <v>0.9987178683906153</v>
+        <v>0.998717868390615</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -790,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9697326908696812</v>
+        <v>0.9697326908696815</v>
       </c>
       <c r="D11">
-        <v>0.9941656392044185</v>
+        <v>0.9941656392044187</v>
       </c>
       <c r="E11">
-        <v>0.9878547169296945</v>
+        <v>0.9878547169296946</v>
       </c>
       <c r="F11">
-        <v>0.9927237391229404</v>
+        <v>0.9927237391229405</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1.003009368577286</v>
       </c>
       <c r="M11">
-        <v>1.007784192102949</v>
+        <v>1.00778419210295</v>
       </c>
       <c r="N11">
         <v>1.001841892578454</v>
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672065813541427</v>
+        <v>0.9672065813541415</v>
       </c>
       <c r="D12">
-        <v>0.9922592978670776</v>
+        <v>0.9922592978670767</v>
       </c>
       <c r="E12">
-        <v>0.9856946303354819</v>
+        <v>0.9856946303354808</v>
       </c>
       <c r="F12">
-        <v>0.9904503389835874</v>
+        <v>0.9904503389835863</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032339829345625</v>
+        <v>1.032339829345624</v>
       </c>
       <c r="J12">
-        <v>0.9984667141540416</v>
+        <v>0.9984667141540404</v>
       </c>
       <c r="K12">
-        <v>1.007536315431582</v>
+        <v>1.007536315431581</v>
       </c>
       <c r="L12">
-        <v>1.001101128161911</v>
+        <v>1.001101128161909</v>
       </c>
       <c r="M12">
-        <v>1.005762811225682</v>
+        <v>1.005762811225681</v>
       </c>
       <c r="N12">
-        <v>0.9998846514138732</v>
+        <v>0.9998846514138718</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -875,10 +875,10 @@
         <v>0.9677510247748397</v>
       </c>
       <c r="D13">
-        <v>0.9926700850047103</v>
+        <v>0.9926700850047102</v>
       </c>
       <c r="E13">
-        <v>0.9861600771854766</v>
+        <v>0.9861600771854767</v>
       </c>
       <c r="F13">
         <v>0.9909401946388734</v>
@@ -887,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032505732775868</v>
+        <v>1.032505732775867</v>
       </c>
       <c r="J13">
-        <v>0.9988879517415543</v>
+        <v>0.9988879517415541</v>
       </c>
       <c r="K13">
         <v>1.007894563943311</v>
@@ -902,7 +902,7 @@
         <v>1.006198424054077</v>
       </c>
       <c r="N13">
-        <v>1.000306487207077</v>
+        <v>1.000306487207076</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9695250377849585</v>
+        <v>0.9695250377849572</v>
       </c>
       <c r="D14">
-        <v>0.9940088973751399</v>
+        <v>0.9940088973751393</v>
       </c>
       <c r="E14">
-        <v>0.9876771034034391</v>
+        <v>0.9876771034034383</v>
       </c>
       <c r="F14">
-        <v>0.9925368049700926</v>
+        <v>0.9925368049700921</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03304598642645</v>
+        <v>1.033045986426449</v>
       </c>
       <c r="J14">
-        <v>1.000260516989449</v>
+        <v>1.000260516989448</v>
       </c>
       <c r="K14">
-        <v>1.009061806983264</v>
+        <v>1.009061806983263</v>
       </c>
       <c r="L14">
-        <v>1.002852493798846</v>
+        <v>1.002852493798845</v>
       </c>
       <c r="M14">
         <v>1.007618007797619</v>
       </c>
       <c r="N14">
-        <v>1.001681001655059</v>
+        <v>1.001681001655058</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9706106043628494</v>
+        <v>0.9706106043628511</v>
       </c>
       <c r="D15">
-        <v>0.9948283797066402</v>
+        <v>0.9948283797066414</v>
       </c>
       <c r="E15">
-        <v>0.9886057252022447</v>
+        <v>0.9886057252022462</v>
       </c>
       <c r="F15">
-        <v>0.9935141649125283</v>
+        <v>0.9935141649125298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033376330485154</v>
+        <v>1.033376330485155</v>
       </c>
       <c r="J15">
-        <v>1.001100427726723</v>
+        <v>1.001100427726724</v>
       </c>
       <c r="K15">
-        <v>1.009776014582138</v>
+        <v>1.009776014582139</v>
       </c>
       <c r="L15">
-        <v>1.003672625322353</v>
+        <v>1.003672625322354</v>
       </c>
       <c r="M15">
-        <v>1.008486825612966</v>
+        <v>1.008486825612967</v>
       </c>
       <c r="N15">
-        <v>1.002522105161919</v>
+        <v>1.00252210516192</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768196143715419</v>
+        <v>0.9768196143715401</v>
       </c>
       <c r="D16">
-        <v>0.9995186796784958</v>
+        <v>0.9995186796784943</v>
       </c>
       <c r="E16">
-        <v>0.9939215875929449</v>
+        <v>0.9939215875929429</v>
       </c>
       <c r="F16">
-        <v>0.9991093650667564</v>
+        <v>0.9991093650667547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035261854552562</v>
+        <v>1.035261854552561</v>
       </c>
       <c r="J16">
-        <v>1.00590425958936</v>
+        <v>1.005904259589359</v>
       </c>
       <c r="K16">
-        <v>1.013859926637216</v>
+        <v>1.013859926637214</v>
       </c>
       <c r="L16">
-        <v>1.008364460504874</v>
+        <v>1.008364460504872</v>
       </c>
       <c r="M16">
-        <v>1.013457993752837</v>
+        <v>1.013457993752835</v>
       </c>
       <c r="N16">
-        <v>1.007332759016808</v>
+        <v>1.007332759016806</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9806225374988676</v>
+        <v>0.9806225374988653</v>
       </c>
       <c r="D17">
-        <v>1.002393966128179</v>
+        <v>1.002393966128178</v>
       </c>
       <c r="E17">
-        <v>0.9971812227004054</v>
+        <v>0.9971812227004038</v>
       </c>
       <c r="F17">
-        <v>1.002540588400809</v>
+        <v>1.002540588400807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03641316379747</v>
+        <v>1.036413163797469</v>
       </c>
       <c r="J17">
-        <v>1.008846282751267</v>
+        <v>1.008846282751264</v>
       </c>
       <c r="K17">
-        <v>1.016360150245503</v>
+        <v>1.016360150245502</v>
       </c>
       <c r="L17">
-        <v>1.011238856464354</v>
+        <v>1.011238856464352</v>
       </c>
       <c r="M17">
-        <v>1.016504218057233</v>
+        <v>1.016504218057232</v>
       </c>
       <c r="N17">
-        <v>1.010278960189059</v>
+        <v>1.010278960189057</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9828093332229388</v>
+        <v>0.9828093332229373</v>
       </c>
       <c r="D18">
-        <v>1.00404817032508</v>
+        <v>1.004048170325078</v>
       </c>
       <c r="E18">
-        <v>0.9990568858118751</v>
+        <v>0.9990568858118741</v>
       </c>
       <c r="F18">
-        <v>1.00451509724327</v>
+        <v>1.004515097243269</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.037073881006521</v>
       </c>
       <c r="J18">
-        <v>1.010537892253891</v>
+        <v>1.01053789225389</v>
       </c>
       <c r="K18">
-        <v>1.017797391032003</v>
+        <v>1.017797391032002</v>
       </c>
       <c r="L18">
-        <v>1.012891918516966</v>
+        <v>1.012891918516965</v>
       </c>
       <c r="M18">
-        <v>1.018256346712484</v>
+        <v>1.018256346712483</v>
       </c>
       <c r="N18">
-        <v>1.011972971971208</v>
+        <v>1.011972971971207</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,22 +1118,22 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9835498031478701</v>
+        <v>0.98354980314787</v>
       </c>
       <c r="D19">
         <v>1.004608432004329</v>
       </c>
       <c r="E19">
-        <v>0.9996922127352623</v>
+        <v>0.9996922127352621</v>
       </c>
       <c r="F19">
-        <v>1.005183924192484</v>
+        <v>1.005183924192483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037297378084106</v>
+        <v>1.037297378084105</v>
       </c>
       <c r="J19">
         <v>1.011110658433602</v>
@@ -1145,7 +1145,7 @@
         <v>1.013451689135118</v>
       </c>
       <c r="M19">
-        <v>1.018849705773499</v>
+        <v>1.018849705773498</v>
       </c>
       <c r="N19">
         <v>1.012546551544591</v>
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802178029419967</v>
+        <v>0.9802178029419978</v>
       </c>
       <c r="D20">
-        <v>1.002087869346151</v>
+        <v>1.002087869346152</v>
       </c>
       <c r="E20">
-        <v>0.9968341746120609</v>
+        <v>0.996834174612062</v>
       </c>
       <c r="F20">
-        <v>1.002175260173159</v>
+        <v>1.00217526017316</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1177,19 +1177,19 @@
         <v>1.036290769479923</v>
       </c>
       <c r="J20">
-        <v>1.008533185081293</v>
+        <v>1.008533185081294</v>
       </c>
       <c r="K20">
-        <v>1.016094105170911</v>
+        <v>1.016094105170912</v>
       </c>
       <c r="L20">
-        <v>1.010932920604996</v>
+        <v>1.010932920604997</v>
       </c>
       <c r="M20">
-        <v>1.016179967791476</v>
+        <v>1.016179967791477</v>
       </c>
       <c r="N20">
-        <v>1.009965417884481</v>
+        <v>1.009965417884483</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690042006419931</v>
+        <v>0.9690042006419919</v>
       </c>
       <c r="D21">
-        <v>0.9936157839336496</v>
+        <v>0.9936157839336488</v>
       </c>
       <c r="E21">
-        <v>0.98723164989097</v>
+        <v>0.9872316498909688</v>
       </c>
       <c r="F21">
-        <v>0.9920679780934001</v>
+        <v>0.9920679780933988</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.032887424277375</v>
       </c>
       <c r="J21">
-        <v>0.9998575414134657</v>
+        <v>0.9998575414134647</v>
       </c>
       <c r="K21">
-        <v>1.0087191251567</v>
+        <v>1.008719125156699</v>
       </c>
       <c r="L21">
-        <v>1.002459028642377</v>
+        <v>1.002459028642376</v>
       </c>
       <c r="M21">
-        <v>1.007201199579008</v>
+        <v>1.007201199579007</v>
       </c>
       <c r="N21">
-        <v>1.001277453807536</v>
+        <v>1.001277453807535</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,19 +1238,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.961632377731879</v>
+        <v>0.9616323777318799</v>
       </c>
       <c r="D22">
-        <v>0.9880561193079548</v>
+        <v>0.9880561193079553</v>
       </c>
       <c r="E22">
-        <v>0.9809326961090485</v>
+        <v>0.9809326961090493</v>
       </c>
       <c r="F22">
-        <v>0.9854389095648428</v>
+        <v>0.9854389095648439</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.030638699851852</v>
       </c>
       <c r="J22">
-        <v>0.9941540701036226</v>
+        <v>0.9941540701036233</v>
       </c>
       <c r="K22">
         <v>1.00386795904164</v>
       </c>
       <c r="L22">
-        <v>0.9968915854957044</v>
+        <v>0.9968915854957052</v>
       </c>
       <c r="M22">
-        <v>1.001304450618828</v>
+        <v>1.001304450618829</v>
       </c>
       <c r="N22">
-        <v>0.9955658829142352</v>
+        <v>0.9955658829142362</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9655728398993364</v>
+        <v>0.9655728398993372</v>
       </c>
       <c r="D23">
-        <v>0.9910268939155956</v>
+        <v>0.9910268939155962</v>
       </c>
       <c r="E23">
-        <v>0.9842982992287458</v>
+        <v>0.9842982992287466</v>
       </c>
       <c r="F23">
-        <v>0.9889808063047085</v>
+        <v>0.9889808063047092</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,19 +1300,19 @@
         <v>1.03184171985598</v>
       </c>
       <c r="J23">
-        <v>0.997202692835552</v>
+        <v>0.9972026928355527</v>
       </c>
       <c r="K23">
-        <v>1.006461242689801</v>
+        <v>1.006461242689802</v>
       </c>
       <c r="L23">
-        <v>0.999867168966089</v>
+        <v>0.9998671689660897</v>
       </c>
       <c r="M23">
         <v>1.004455806701923</v>
       </c>
       <c r="N23">
-        <v>0.9986188350401263</v>
+        <v>0.9986188350401268</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,13 +1323,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980400781652664</v>
+        <v>0.9804007816526644</v>
       </c>
       <c r="D24">
-        <v>1.00222625180168</v>
+        <v>1.002226251801681</v>
       </c>
       <c r="E24">
-        <v>0.9969910695801948</v>
+        <v>0.9969910695801955</v>
       </c>
       <c r="F24">
         <v>1.002340418960957</v>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036346107527554</v>
+        <v>1.036346107527555</v>
       </c>
       <c r="J24">
         <v>1.00867473561526</v>
@@ -1347,10 +1347,10 @@
         <v>1.016214384433208</v>
       </c>
       <c r="L24">
-        <v>1.011071232260155</v>
+        <v>1.011071232260156</v>
       </c>
       <c r="M24">
-        <v>1.016326558502004</v>
+        <v>1.016326558502005</v>
       </c>
       <c r="N24">
         <v>1.010107169436443</v>
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.99638955310361</v>
+        <v>0.9963895531036079</v>
       </c>
       <c r="D25">
-        <v>1.014333115679532</v>
+        <v>1.014333115679531</v>
       </c>
       <c r="E25">
-        <v>1.010725378675281</v>
+        <v>1.010725378675279</v>
       </c>
       <c r="F25">
-        <v>1.016800505323743</v>
+        <v>1.016800505323741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041152545466641</v>
+        <v>1.04115254546664</v>
       </c>
       <c r="J25">
-        <v>1.021039037113777</v>
+        <v>1.021039037113775</v>
       </c>
       <c r="K25">
-        <v>1.02671292971497</v>
+        <v>1.026712929714968</v>
       </c>
       <c r="L25">
-        <v>1.02315944764791</v>
+        <v>1.023159447647909</v>
       </c>
       <c r="M25">
-        <v>1.029143495433652</v>
+        <v>1.02914349543365</v>
       </c>
       <c r="N25">
-        <v>1.022489029661293</v>
+        <v>1.022489029661291</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008323712329355</v>
+        <v>1.002893854813123</v>
       </c>
       <c r="D2">
-        <v>1.023385829626129</v>
+        <v>1.018971855484718</v>
       </c>
       <c r="E2">
-        <v>1.021007863539462</v>
+        <v>1.018644676465968</v>
       </c>
       <c r="F2">
-        <v>1.027629904901868</v>
+        <v>1.0293800980384</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04469561834289</v>
+        <v>1.043602848315913</v>
       </c>
       <c r="J2">
-        <v>1.030258281221255</v>
+        <v>1.024988354354532</v>
       </c>
       <c r="K2">
-        <v>1.034528700070342</v>
+        <v>1.030173061143412</v>
       </c>
       <c r="L2">
-        <v>1.032182082640417</v>
+        <v>1.029850231393834</v>
       </c>
       <c r="M2">
-        <v>1.038717277313576</v>
+        <v>1.040444750697358</v>
       </c>
       <c r="N2">
-        <v>1.031721366152885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011814651238151</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040581697752621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016580625367818</v>
+        <v>1.007583328983127</v>
       </c>
       <c r="D3">
-        <v>1.02965494213075</v>
+        <v>1.022225911484219</v>
       </c>
       <c r="E3">
-        <v>1.028137104588532</v>
+        <v>1.02231486840702</v>
       </c>
       <c r="F3">
-        <v>1.03514047471971</v>
+        <v>1.032766929321708</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047119504601863</v>
+        <v>1.044594442241444</v>
       </c>
       <c r="J3">
-        <v>1.036629269358451</v>
+        <v>1.02786937810043</v>
       </c>
       <c r="K3">
-        <v>1.039921937896939</v>
+        <v>1.03258209151664</v>
       </c>
       <c r="L3">
-        <v>1.03842219182624</v>
+        <v>1.032669971004534</v>
       </c>
       <c r="M3">
-        <v>1.04534263467953</v>
+        <v>1.042997038516806</v>
       </c>
       <c r="N3">
-        <v>1.03810140182398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012820852607279</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042601659384252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021753038369157</v>
+        <v>1.010554710207066</v>
       </c>
       <c r="D4">
-        <v>1.033583817023526</v>
+        <v>1.024289501673333</v>
       </c>
       <c r="E4">
-        <v>1.032609268680467</v>
+        <v>1.024646721951956</v>
       </c>
       <c r="F4">
-        <v>1.039852857869439</v>
+        <v>1.034920828532985</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048624684113521</v>
+        <v>1.045211905207606</v>
       </c>
       <c r="J4">
-        <v>1.040616205368271</v>
+        <v>1.02969222537132</v>
       </c>
       <c r="K4">
-        <v>1.043293131429231</v>
+        <v>1.034103352515825</v>
       </c>
       <c r="L4">
-        <v>1.042329435495224</v>
+        <v>1.034456511805095</v>
       </c>
       <c r="M4">
-        <v>1.049492958624286</v>
+        <v>1.044615295096044</v>
       </c>
       <c r="N4">
-        <v>1.042093999740241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013456767761714</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043882396118321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02388921147416</v>
+        <v>1.011789326903218</v>
       </c>
       <c r="D5">
-        <v>1.035206688084871</v>
+        <v>1.025147277977525</v>
       </c>
       <c r="E5">
-        <v>1.034457614582958</v>
+        <v>1.025617076518477</v>
       </c>
       <c r="F5">
-        <v>1.041800733011693</v>
+        <v>1.035817617181314</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049243065664295</v>
+        <v>1.045465815190415</v>
       </c>
       <c r="J5">
-        <v>1.042261728827488</v>
+        <v>1.030448945099153</v>
       </c>
       <c r="K5">
-        <v>1.044683558942048</v>
+        <v>1.034734146879985</v>
       </c>
       <c r="L5">
-        <v>1.043942586015727</v>
+        <v>1.035198749209771</v>
       </c>
       <c r="M5">
-        <v>1.05120691039469</v>
+        <v>1.045287892008844</v>
       </c>
       <c r="N5">
-        <v>1.043741860031514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013720576716198</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044414708801858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024245705634712</v>
+        <v>1.011995786216781</v>
       </c>
       <c r="D6">
-        <v>1.035477532335638</v>
+        <v>1.025290738644016</v>
       </c>
       <c r="E6">
-        <v>1.034766152521414</v>
+        <v>1.02577942901647</v>
       </c>
       <c r="F6">
-        <v>1.04212589963761</v>
+        <v>1.035967689404947</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04934607083132</v>
+        <v>1.045508118411617</v>
       </c>
       <c r="J6">
-        <v>1.0425362769086</v>
+        <v>1.03057544681209</v>
       </c>
       <c r="K6">
-        <v>1.044915487966199</v>
+        <v>1.034839554162573</v>
       </c>
       <c r="L6">
-        <v>1.044211762984534</v>
+        <v>1.03532286449143</v>
       </c>
       <c r="M6">
-        <v>1.051492933448063</v>
+        <v>1.045400378175628</v>
       </c>
       <c r="N6">
-        <v>1.044016798002393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013764667245155</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044503733575396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021781729443841</v>
+        <v>1.010571263705183</v>
       </c>
       <c r="D7">
-        <v>1.033605613002389</v>
+        <v>1.024301001275397</v>
       </c>
       <c r="E7">
-        <v>1.03263408863698</v>
+        <v>1.024659726562163</v>
       </c>
       <c r="F7">
-        <v>1.039879013342868</v>
+        <v>1.034932845315187</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048633002590872</v>
+        <v>1.045215320103394</v>
       </c>
       <c r="J7">
-        <v>1.040638310775879</v>
+        <v>1.029702374054706</v>
       </c>
       <c r="K7">
-        <v>1.043311813813135</v>
+        <v>1.034111815262962</v>
       </c>
       <c r="L7">
-        <v>1.042351103977545</v>
+        <v>1.034466463933019</v>
       </c>
       <c r="M7">
-        <v>1.049515979359182</v>
+        <v>1.044624312385225</v>
       </c>
       <c r="N7">
-        <v>1.042116136540064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013460306529633</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043889532664798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011151014553694</v>
+        <v>1.004492064991889</v>
       </c>
       <c r="D8">
-        <v>1.025532033574417</v>
+        <v>1.020080459880984</v>
       </c>
       <c r="E8">
-        <v>1.02344766010618</v>
+        <v>1.019894149072006</v>
       </c>
       <c r="F8">
-        <v>1.030199989977774</v>
+        <v>1.030532660927232</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045528345114646</v>
+        <v>1.043943035868165</v>
       </c>
       <c r="J8">
-        <v>1.032440621369582</v>
+        <v>1.025970759633439</v>
       </c>
       <c r="K8">
-        <v>1.03637691640802</v>
+        <v>1.030995128560045</v>
       </c>
       <c r="L8">
-        <v>1.034319115402114</v>
+        <v>1.03081121921409</v>
       </c>
       <c r="M8">
-        <v>1.040985850310321</v>
+        <v>1.041314340364414</v>
       </c>
       <c r="N8">
-        <v>1.033906805474521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012157903794545</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041269919263601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9909886321958983</v>
+        <v>0.9932715492108007</v>
       </c>
       <c r="D9">
-        <v>1.010240382590644</v>
+        <v>1.012307483822745</v>
       </c>
       <c r="E9">
-        <v>1.006080586228585</v>
+        <v>1.011151129669094</v>
       </c>
       <c r="F9">
-        <v>1.011909708239475</v>
+        <v>1.022477081226903</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039535814438004</v>
+        <v>1.041510618850091</v>
       </c>
       <c r="J9">
-        <v>1.016863668007297</v>
+        <v>1.019064164417165</v>
       </c>
       <c r="K9">
-        <v>1.023169473196012</v>
+        <v>1.025203987453612</v>
       </c>
       <c r="L9">
-        <v>1.019075774533804</v>
+        <v>1.024065841715935</v>
       </c>
       <c r="M9">
-        <v>1.024812469395161</v>
+        <v>1.035215713645801</v>
       </c>
       <c r="N9">
-        <v>1.01830773105176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009741974947386</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036443254055254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9763854806327656</v>
+        <v>0.9855138710654303</v>
       </c>
       <c r="D10">
-        <v>0.9991905629220637</v>
+        <v>1.006961904959631</v>
       </c>
       <c r="E10">
-        <v>0.9935496546189792</v>
+        <v>1.005182845951787</v>
       </c>
       <c r="F10">
-        <v>0.998717868390615</v>
+        <v>1.017038273102478</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035130245656079</v>
+        <v>1.039798324039116</v>
       </c>
       <c r="J10">
-        <v>1.005568388595808</v>
+        <v>1.014314260523689</v>
       </c>
       <c r="K10">
-        <v>1.013574447400868</v>
+        <v>1.021206587565877</v>
       </c>
       <c r="L10">
-        <v>1.008036356948648</v>
+        <v>1.019459148832117</v>
       </c>
       <c r="M10">
-        <v>1.013110310770708</v>
+        <v>1.031106562964536</v>
       </c>
       <c r="N10">
-        <v>1.00699641104792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008086344994463</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033242878133908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9697326908696815</v>
+        <v>0.9828984197656189</v>
       </c>
       <c r="D11">
-        <v>0.9941656392044187</v>
+        <v>1.005270718288354</v>
       </c>
       <c r="E11">
-        <v>0.9878547169296946</v>
+        <v>1.003482635555071</v>
       </c>
       <c r="F11">
-        <v>0.9927237391229405</v>
+        <v>1.015875609244224</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03310919142824</v>
+        <v>1.039397521953874</v>
       </c>
       <c r="J11">
-        <v>1.000421179753291</v>
+        <v>1.013000366103247</v>
       </c>
       <c r="K11">
-        <v>1.009198428194858</v>
+        <v>1.020093916423126</v>
       </c>
       <c r="L11">
-        <v>1.003009368577286</v>
+        <v>1.018339171973339</v>
       </c>
       <c r="M11">
-        <v>1.00778419210295</v>
+        <v>1.030504218987713</v>
       </c>
       <c r="N11">
-        <v>1.001841892578454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007707418994099</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033205067610727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672065813541415</v>
+        <v>0.9822490361948325</v>
       </c>
       <c r="D12">
-        <v>0.9922592978670767</v>
+        <v>1.004911109178299</v>
       </c>
       <c r="E12">
-        <v>0.9856946303354808</v>
+        <v>1.003212737660321</v>
       </c>
       <c r="F12">
-        <v>0.9904503389835863</v>
+        <v>1.015910927521057</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032339829345624</v>
+        <v>1.03939523994972</v>
       </c>
       <c r="J12">
-        <v>0.9984667141540404</v>
+        <v>1.012824122523874</v>
       </c>
       <c r="K12">
-        <v>1.007536315431581</v>
+        <v>1.019944821068832</v>
       </c>
       <c r="L12">
-        <v>1.001101128161909</v>
+        <v>1.01827864444452</v>
       </c>
       <c r="M12">
-        <v>1.005762811225681</v>
+        <v>1.030739518482893</v>
       </c>
       <c r="N12">
-        <v>0.9998846514138718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007712831020956</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033719298383305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9677510247748397</v>
+        <v>0.9830715755737403</v>
       </c>
       <c r="D13">
-        <v>0.9926700850047102</v>
+        <v>1.005551987477904</v>
       </c>
       <c r="E13">
-        <v>0.9861600771854767</v>
+        <v>1.004027588425842</v>
       </c>
       <c r="F13">
-        <v>0.9909401946388734</v>
+        <v>1.016882411136327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032505732775867</v>
+        <v>1.039703820688444</v>
       </c>
       <c r="J13">
-        <v>0.9988879517415541</v>
+        <v>1.013514754384909</v>
       </c>
       <c r="K13">
-        <v>1.007894563943311</v>
+        <v>1.020529908337555</v>
       </c>
       <c r="L13">
-        <v>1.00151237650973</v>
+        <v>1.019034254790496</v>
       </c>
       <c r="M13">
-        <v>1.006198424054077</v>
+        <v>1.03165019104816</v>
       </c>
       <c r="N13">
-        <v>1.000306487207076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008014816200401</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034717206618161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9695250377849572</v>
+        <v>0.9843084705176415</v>
       </c>
       <c r="D14">
-        <v>0.9940088973751393</v>
+        <v>1.006449470507165</v>
       </c>
       <c r="E14">
-        <v>0.9876771034034383</v>
+        <v>1.005083282125369</v>
       </c>
       <c r="F14">
-        <v>0.9925368049700921</v>
+        <v>1.017980821033283</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033045986426449</v>
+        <v>1.040058034080302</v>
       </c>
       <c r="J14">
-        <v>1.000260516989448</v>
+        <v>1.014385536170883</v>
       </c>
       <c r="K14">
-        <v>1.009061806983263</v>
+        <v>1.021267586306971</v>
       </c>
       <c r="L14">
-        <v>1.002852493798845</v>
+        <v>1.019926811628386</v>
       </c>
       <c r="M14">
-        <v>1.007618007797619</v>
+        <v>1.03258796427027</v>
       </c>
       <c r="N14">
-        <v>1.001681001655058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008358346344486</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035632401560268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9706106043628511</v>
+        <v>0.9849331480526575</v>
       </c>
       <c r="D15">
-        <v>0.9948283797066414</v>
+        <v>1.006888691275317</v>
       </c>
       <c r="E15">
-        <v>0.9886057252022462</v>
+        <v>1.005583921481028</v>
       </c>
       <c r="F15">
-        <v>0.9935141649125298</v>
+        <v>1.018466598769878</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033376330485155</v>
+        <v>1.040214096533999</v>
       </c>
       <c r="J15">
-        <v>1.001100427726724</v>
+        <v>1.014791468028938</v>
       </c>
       <c r="K15">
-        <v>1.009776014582139</v>
+        <v>1.021610643534328</v>
       </c>
       <c r="L15">
-        <v>1.003672625322354</v>
+        <v>1.020329949262566</v>
       </c>
       <c r="M15">
-        <v>1.008486825612967</v>
+        <v>1.032978425480756</v>
       </c>
       <c r="N15">
-        <v>1.00252210516192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008508300027878</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035978664807066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768196143715401</v>
+        <v>0.9880572087396315</v>
       </c>
       <c r="D16">
-        <v>0.9995186796784943</v>
+        <v>1.009022829130213</v>
       </c>
       <c r="E16">
-        <v>0.9939215875929429</v>
+        <v>1.007953827417658</v>
       </c>
       <c r="F16">
-        <v>0.9991093650667547</v>
+        <v>1.020609652435844</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035261854552561</v>
+        <v>1.040891300979063</v>
       </c>
       <c r="J16">
-        <v>1.005904259589359</v>
+        <v>1.016674477532458</v>
       </c>
       <c r="K16">
-        <v>1.013859926637214</v>
+        <v>1.023194857554463</v>
       </c>
       <c r="L16">
-        <v>1.008364460504872</v>
+        <v>1.022144682577053</v>
       </c>
       <c r="M16">
-        <v>1.013457993752835</v>
+        <v>1.03458088821358</v>
       </c>
       <c r="N16">
-        <v>1.007332759016806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009151612640626</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037206425460124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9806225374988653</v>
+        <v>0.989806123830376</v>
       </c>
       <c r="D17">
-        <v>1.002393966128178</v>
+        <v>1.010190774076841</v>
       </c>
       <c r="E17">
-        <v>0.9971812227004038</v>
+        <v>1.00921944083687</v>
       </c>
       <c r="F17">
-        <v>1.002540588400807</v>
+        <v>1.021673600073645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036413163797469</v>
+        <v>1.041222498455233</v>
       </c>
       <c r="J17">
-        <v>1.008846282751264</v>
+        <v>1.017661753560118</v>
       </c>
       <c r="K17">
-        <v>1.016360150245502</v>
+        <v>1.024022450700075</v>
       </c>
       <c r="L17">
-        <v>1.011238856464352</v>
+        <v>1.023067728078811</v>
       </c>
       <c r="M17">
-        <v>1.016504218057232</v>
+        <v>1.035311992705716</v>
       </c>
       <c r="N17">
-        <v>1.010278960189057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009464574659869</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037654937620948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9828093332229373</v>
+        <v>0.9905266495530062</v>
       </c>
       <c r="D18">
-        <v>1.004048170325078</v>
+        <v>1.010625894541491</v>
       </c>
       <c r="E18">
-        <v>0.9990568858118741</v>
+        <v>1.009626507941667</v>
       </c>
       <c r="F18">
-        <v>1.004515097243269</v>
+        <v>1.021859329090597</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037073881006521</v>
+        <v>1.041280653182835</v>
       </c>
       <c r="J18">
-        <v>1.01053789225389</v>
+        <v>1.017952388526642</v>
       </c>
       <c r="K18">
-        <v>1.017797391032002</v>
+        <v>1.024263697753591</v>
       </c>
       <c r="L18">
-        <v>1.012891918516965</v>
+        <v>1.023281118743055</v>
       </c>
       <c r="M18">
-        <v>1.018256346712483</v>
+        <v>1.035311116125351</v>
       </c>
       <c r="N18">
-        <v>1.011972971971207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009515292183891</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03741585286533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.98354980314787</v>
+        <v>0.9903191021212465</v>
       </c>
       <c r="D19">
-        <v>1.004608432004329</v>
+        <v>1.010402315151703</v>
       </c>
       <c r="E19">
-        <v>0.9996922127352621</v>
+        <v>1.009254103935119</v>
       </c>
       <c r="F19">
-        <v>1.005183924192483</v>
+        <v>1.021243514525541</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037297378084105</v>
+        <v>1.041096628704414</v>
       </c>
       <c r="J19">
-        <v>1.011110658433602</v>
+        <v>1.017616099176897</v>
       </c>
       <c r="K19">
-        <v>1.018283970111387</v>
+        <v>1.02398028121394</v>
       </c>
       <c r="L19">
-        <v>1.013451689135118</v>
+        <v>1.02285129174297</v>
       </c>
       <c r="M19">
-        <v>1.018849705773498</v>
+        <v>1.034642729571375</v>
       </c>
       <c r="N19">
-        <v>1.012546551544591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009334774629306</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036560676657149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802178029419978</v>
+        <v>0.9875317132076588</v>
       </c>
       <c r="D20">
-        <v>1.002087869346152</v>
+        <v>1.008351439843537</v>
       </c>
       <c r="E20">
-        <v>0.996834174612062</v>
+        <v>1.006733907454681</v>
       </c>
       <c r="F20">
-        <v>1.00217526017316</v>
+        <v>1.018453309748279</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036290769479923</v>
+        <v>1.040248426304992</v>
       </c>
       <c r="J20">
-        <v>1.008533185081294</v>
+        <v>1.015551873876924</v>
       </c>
       <c r="K20">
-        <v>1.016094105170912</v>
+        <v>1.022249011810097</v>
       </c>
       <c r="L20">
-        <v>1.010932920604997</v>
+        <v>1.020659373739906</v>
       </c>
       <c r="M20">
-        <v>1.016179967791477</v>
+        <v>1.032179259417338</v>
       </c>
       <c r="N20">
-        <v>1.009965417884483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008518294470656</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034081193951285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690042006419919</v>
+        <v>0.9815281429980621</v>
       </c>
       <c r="D21">
-        <v>0.9936157839336488</v>
+        <v>1.004202221092477</v>
       </c>
       <c r="E21">
-        <v>0.9872316498909688</v>
+        <v>1.002071911572728</v>
       </c>
       <c r="F21">
-        <v>0.9920679780933988</v>
+        <v>1.014134002246587</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032887424277375</v>
+        <v>1.038870646660921</v>
       </c>
       <c r="J21">
-        <v>0.9998575414134647</v>
+        <v>1.01181899397661</v>
       </c>
       <c r="K21">
-        <v>1.008719125156699</v>
+        <v>1.019104416066059</v>
       </c>
       <c r="L21">
-        <v>1.002459028642376</v>
+        <v>1.017014136986203</v>
       </c>
       <c r="M21">
-        <v>1.007201199579007</v>
+        <v>1.028852459618241</v>
       </c>
       <c r="N21">
-        <v>1.001277453807535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007202086033559</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031407118614968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9616323777318799</v>
+        <v>0.9777119976083305</v>
       </c>
       <c r="D22">
-        <v>0.9880561193079553</v>
+        <v>1.001576062455299</v>
       </c>
       <c r="E22">
-        <v>0.9809326961090493</v>
+        <v>0.999136917808349</v>
       </c>
       <c r="F22">
-        <v>0.9854389095648439</v>
+        <v>1.011441665834687</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030638699851852</v>
+        <v>1.03799581575635</v>
       </c>
       <c r="J22">
-        <v>0.9941540701036233</v>
+        <v>1.009462589095305</v>
       </c>
       <c r="K22">
-        <v>1.00386795904164</v>
+        <v>1.017116361764234</v>
       </c>
       <c r="L22">
-        <v>0.9968915854957052</v>
+        <v>1.014725491936973</v>
       </c>
       <c r="M22">
-        <v>1.001304450618829</v>
+        <v>1.026789818351201</v>
       </c>
       <c r="N22">
-        <v>0.9955658829142362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006375128645379</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029774653493379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9655728398993372</v>
+        <v>0.9797440078920581</v>
       </c>
       <c r="D23">
-        <v>0.9910268939155962</v>
+        <v>1.002973927435804</v>
       </c>
       <c r="E23">
-        <v>0.9842982992287466</v>
+        <v>1.000698800637909</v>
       </c>
       <c r="F23">
-        <v>0.9889808063047092</v>
+        <v>1.012874134926871</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03184171985598</v>
+        <v>1.03846257576591</v>
       </c>
       <c r="J23">
-        <v>0.9972026928355527</v>
+        <v>1.010717397823165</v>
       </c>
       <c r="K23">
-        <v>1.006461242689802</v>
+        <v>1.018175248146739</v>
       </c>
       <c r="L23">
-        <v>0.9998671689660897</v>
+        <v>1.015943936002992</v>
       </c>
       <c r="M23">
-        <v>1.004455806701923</v>
+        <v>1.027887787945664</v>
       </c>
       <c r="N23">
-        <v>0.9986188350401268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00681553710745</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030643635453791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9804007816526644</v>
+        <v>0.9875495328558859</v>
       </c>
       <c r="D24">
-        <v>1.002226251801681</v>
+        <v>1.008353907612237</v>
       </c>
       <c r="E24">
-        <v>0.9969910695801955</v>
+        <v>1.006718269684482</v>
       </c>
       <c r="F24">
-        <v>1.002340418960957</v>
+        <v>1.018400868137069</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036346107527555</v>
+        <v>1.040234849094635</v>
       </c>
       <c r="J24">
-        <v>1.00867473561526</v>
+        <v>1.0155354227321</v>
       </c>
       <c r="K24">
-        <v>1.016214384433208</v>
+        <v>1.022235890495777</v>
       </c>
       <c r="L24">
-        <v>1.011071232260156</v>
+        <v>1.020628423302834</v>
       </c>
       <c r="M24">
-        <v>1.016326558502005</v>
+        <v>1.032112370044288</v>
       </c>
       <c r="N24">
-        <v>1.010107169436443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008505507142648</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033987147481932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9963895531036079</v>
+        <v>0.9962363070329969</v>
       </c>
       <c r="D25">
-        <v>1.014333115679531</v>
+        <v>1.014358867795865</v>
       </c>
       <c r="E25">
-        <v>1.010725378675279</v>
+        <v>1.013454715975389</v>
       </c>
       <c r="F25">
-        <v>1.016800505323741</v>
+        <v>1.024597456485006</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04115254546664</v>
+        <v>1.042162830324539</v>
       </c>
       <c r="J25">
-        <v>1.021039037113775</v>
+        <v>1.020891001747385</v>
       </c>
       <c r="K25">
-        <v>1.026712929714968</v>
+        <v>1.02673829632344</v>
       </c>
       <c r="L25">
-        <v>1.023159447647909</v>
+        <v>1.025847694543147</v>
       </c>
       <c r="M25">
-        <v>1.02914349543365</v>
+        <v>1.036825562089362</v>
       </c>
       <c r="N25">
-        <v>1.022489029661291</v>
+        <v>1.010381586664611</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037717347244128</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002893854813123</v>
+        <v>1.003297366764738</v>
       </c>
       <c r="D2">
-        <v>1.018971855484718</v>
+        <v>1.019064393458051</v>
       </c>
       <c r="E2">
-        <v>1.018644676465968</v>
+        <v>1.018987402821893</v>
       </c>
       <c r="F2">
-        <v>1.0293800980384</v>
+        <v>1.029637271836322</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043602848315913</v>
+        <v>1.043679887278842</v>
       </c>
       <c r="J2">
-        <v>1.024988354354532</v>
+        <v>1.025379899466893</v>
       </c>
       <c r="K2">
-        <v>1.030173061143412</v>
+        <v>1.03026436962319</v>
       </c>
       <c r="L2">
-        <v>1.029850231393834</v>
+        <v>1.030188401893366</v>
       </c>
       <c r="M2">
-        <v>1.040444750697358</v>
+        <v>1.040698594194521</v>
       </c>
       <c r="N2">
-        <v>1.011814651238151</v>
+        <v>1.013632378150499</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040581697752621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040782597810167</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020080529435974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007583328983127</v>
+        <v>1.007664257370647</v>
       </c>
       <c r="D3">
-        <v>1.022225911484219</v>
+        <v>1.021953655009628</v>
       </c>
       <c r="E3">
-        <v>1.02231486840702</v>
+        <v>1.022395833665571</v>
       </c>
       <c r="F3">
-        <v>1.032766929321708</v>
+        <v>1.032817166569487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044594442241444</v>
+        <v>1.044514165243778</v>
       </c>
       <c r="J3">
-        <v>1.02786937810043</v>
+        <v>1.027948145413021</v>
       </c>
       <c r="K3">
-        <v>1.03258209151664</v>
+        <v>1.032313134025454</v>
       </c>
       <c r="L3">
-        <v>1.032669971004534</v>
+        <v>1.032749955824614</v>
       </c>
       <c r="M3">
-        <v>1.042997038516806</v>
+        <v>1.04304668255743</v>
       </c>
       <c r="N3">
-        <v>1.012820852607279</v>
+        <v>1.01434442278445</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042601659384252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042640949198686</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020531966566684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010554710207066</v>
+        <v>1.010434226976461</v>
       </c>
       <c r="D4">
-        <v>1.024289501673333</v>
+        <v>1.023788160768084</v>
       </c>
       <c r="E4">
-        <v>1.024646721951956</v>
+        <v>1.024564058649061</v>
       </c>
       <c r="F4">
-        <v>1.034920828532985</v>
+        <v>1.034841786550407</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045211905207606</v>
+        <v>1.045032770133267</v>
       </c>
       <c r="J4">
-        <v>1.02969222537132</v>
+        <v>1.029574738444731</v>
       </c>
       <c r="K4">
-        <v>1.034103352515825</v>
+        <v>1.033607716902257</v>
       </c>
       <c r="L4">
-        <v>1.034456511805095</v>
+        <v>1.034374787933366</v>
       </c>
       <c r="M4">
-        <v>1.044615295096044</v>
+        <v>1.044537129581972</v>
       </c>
       <c r="N4">
-        <v>1.013456767761714</v>
+        <v>1.014794981785268</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043882396118321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043820533640671</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020814490582033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011789326903218</v>
+        <v>1.011585829477655</v>
       </c>
       <c r="D5">
-        <v>1.025147277977525</v>
+        <v>1.024551222701964</v>
       </c>
       <c r="E5">
-        <v>1.025617076518477</v>
+        <v>1.025466933419485</v>
       </c>
       <c r="F5">
-        <v>1.035817617181314</v>
+        <v>1.035685277971109</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045465815190415</v>
+        <v>1.045245793485474</v>
       </c>
       <c r="J5">
-        <v>1.030448945099153</v>
+        <v>1.030250355084389</v>
       </c>
       <c r="K5">
-        <v>1.034734146879985</v>
+        <v>1.034144692712681</v>
       </c>
       <c r="L5">
-        <v>1.035198749209771</v>
+        <v>1.035050266133551</v>
       </c>
       <c r="M5">
-        <v>1.045287892008844</v>
+        <v>1.045156980818381</v>
       </c>
       <c r="N5">
-        <v>1.013720576716198</v>
+        <v>1.014982021253174</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044414708801858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044311101923313</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.0209310150341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011995786216781</v>
+        <v>1.011778445039167</v>
       </c>
       <c r="D6">
-        <v>1.025290738644016</v>
+        <v>1.024678871736774</v>
       </c>
       <c r="E6">
-        <v>1.02577942901647</v>
+        <v>1.025618030704559</v>
       </c>
       <c r="F6">
-        <v>1.035967689404947</v>
+        <v>1.03582646149928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045508118411617</v>
+        <v>1.045281270317518</v>
       </c>
       <c r="J6">
-        <v>1.03057544681209</v>
+        <v>1.030363319605838</v>
       </c>
       <c r="K6">
-        <v>1.034839554162573</v>
+        <v>1.034234432253967</v>
       </c>
       <c r="L6">
-        <v>1.03532286449143</v>
+        <v>1.035163242333764</v>
       </c>
       <c r="M6">
-        <v>1.045400378175628</v>
+        <v>1.045260667172598</v>
       </c>
       <c r="N6">
-        <v>1.013764667245155</v>
+        <v>1.015013288447682</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044503733575396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044393162285215</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020950449445234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010571263705183</v>
+        <v>1.01046112053715</v>
       </c>
       <c r="D7">
-        <v>1.024301001275397</v>
+        <v>1.023807324321974</v>
       </c>
       <c r="E7">
-        <v>1.024659726562163</v>
+        <v>1.024585860139426</v>
       </c>
       <c r="F7">
-        <v>1.034932845315187</v>
+        <v>1.034860698227455</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045215320103394</v>
+        <v>1.045039974002953</v>
       </c>
       <c r="J7">
-        <v>1.029702374054706</v>
+        <v>1.029594968884534</v>
       </c>
       <c r="K7">
-        <v>1.034111815262962</v>
+        <v>1.033623754301292</v>
       </c>
       <c r="L7">
-        <v>1.034466463933019</v>
+        <v>1.034393436653411</v>
       </c>
       <c r="M7">
-        <v>1.044624312385225</v>
+        <v>1.044552965015162</v>
       </c>
       <c r="N7">
-        <v>1.013460306529633</v>
+        <v>1.014826995688193</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043889532664798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04383306626681</v>
+      </c>
+      <c r="S7">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T7">
+        <v>1.020818800415033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004492064991889</v>
+        <v>1.004820542402554</v>
       </c>
       <c r="D8">
-        <v>1.020080459880984</v>
+        <v>1.020076173357324</v>
       </c>
       <c r="E8">
-        <v>1.019894149072006</v>
+        <v>1.020177402123146</v>
       </c>
       <c r="F8">
-        <v>1.030532660927232</v>
+        <v>1.030742654792318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043943035868165</v>
+        <v>1.043979898148603</v>
       </c>
       <c r="J8">
-        <v>1.025970759633439</v>
+        <v>1.026289829126866</v>
       </c>
       <c r="K8">
-        <v>1.030995128560045</v>
+        <v>1.030990897275427</v>
       </c>
       <c r="L8">
-        <v>1.03081121921409</v>
+        <v>1.031090821693978</v>
       </c>
       <c r="M8">
-        <v>1.041314340364414</v>
+        <v>1.041521696830778</v>
       </c>
       <c r="N8">
-        <v>1.012157903794545</v>
+        <v>1.013965222794492</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041269919263601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041434027810208</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02024373709859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9932715492108007</v>
+        <v>0.994396954753922</v>
       </c>
       <c r="D9">
-        <v>1.012307483822745</v>
+        <v>1.013193910893309</v>
       </c>
       <c r="E9">
-        <v>1.011151129669094</v>
+        <v>1.012079906805402</v>
       </c>
       <c r="F9">
-        <v>1.022477081226903</v>
+        <v>1.023197994093208</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041510618850091</v>
+        <v>1.04193147065965</v>
       </c>
       <c r="J9">
-        <v>1.019064164417165</v>
+        <v>1.02014913439497</v>
       </c>
       <c r="K9">
-        <v>1.025203987453612</v>
+        <v>1.026076492489501</v>
       </c>
       <c r="L9">
-        <v>1.024065841715935</v>
+        <v>1.024979989746903</v>
       </c>
       <c r="M9">
-        <v>1.035215713645801</v>
+        <v>1.035925587126494</v>
       </c>
       <c r="N9">
-        <v>1.009741974947386</v>
+        <v>1.012270675759259</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036443254055254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037005074283029</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019146024030497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9855138710654303</v>
+        <v>0.9872586756670325</v>
       </c>
       <c r="D10">
-        <v>1.006961904959631</v>
+        <v>1.008514915166349</v>
       </c>
       <c r="E10">
-        <v>1.005182845951787</v>
+        <v>1.006613244170639</v>
       </c>
       <c r="F10">
-        <v>1.017038273102478</v>
+        <v>1.018156735833919</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039798324039116</v>
+        <v>1.040507854592191</v>
       </c>
       <c r="J10">
-        <v>1.014314260523689</v>
+        <v>1.015987093811517</v>
       </c>
       <c r="K10">
-        <v>1.021206587565877</v>
+        <v>1.022732113462483</v>
       </c>
       <c r="L10">
-        <v>1.019459148832117</v>
+        <v>1.020864112306659</v>
       </c>
       <c r="M10">
-        <v>1.031106562964536</v>
+        <v>1.03220572473587</v>
       </c>
       <c r="N10">
-        <v>1.008086344994463</v>
+        <v>1.011240830027493</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033242878133908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034112744448393</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018394369876682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9828984197656189</v>
+        <v>0.9848997669563004</v>
       </c>
       <c r="D11">
-        <v>1.005270718288354</v>
+        <v>1.007077874893465</v>
       </c>
       <c r="E11">
-        <v>1.003482635555071</v>
+        <v>1.005118784678936</v>
       </c>
       <c r="F11">
-        <v>1.015875609244224</v>
+        <v>1.017157090300527</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039397521953874</v>
+        <v>1.040214874547674</v>
       </c>
       <c r="J11">
-        <v>1.013000366103247</v>
+        <v>1.014914511112491</v>
       </c>
       <c r="K11">
-        <v>1.020093916423126</v>
+        <v>1.021867535948437</v>
       </c>
       <c r="L11">
-        <v>1.018339171973339</v>
+        <v>1.019944809556068</v>
       </c>
       <c r="M11">
-        <v>1.030504218987713</v>
+        <v>1.031762543435329</v>
       </c>
       <c r="N11">
-        <v>1.007707418994099</v>
+        <v>1.011235050180627</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033205067610727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034200387513513</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018248610977366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9822490361948325</v>
+        <v>0.9843092098596752</v>
       </c>
       <c r="D12">
-        <v>1.004911109178299</v>
+        <v>1.006772552405311</v>
       </c>
       <c r="E12">
-        <v>1.003212737660321</v>
+        <v>1.004893265511329</v>
       </c>
       <c r="F12">
-        <v>1.015910927521057</v>
+        <v>1.017227654210358</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.03939523994972</v>
+        <v>1.040232464784138</v>
       </c>
       <c r="J12">
-        <v>1.012824122523874</v>
+        <v>1.014792804070594</v>
       </c>
       <c r="K12">
-        <v>1.019944821068832</v>
+        <v>1.021771141141032</v>
       </c>
       <c r="L12">
-        <v>1.01827864444452</v>
+        <v>1.019927314912988</v>
       </c>
       <c r="M12">
-        <v>1.030739518482893</v>
+        <v>1.032032078446173</v>
       </c>
       <c r="N12">
-        <v>1.007712831020956</v>
+        <v>1.011352140562304</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033719298383305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034741348748772</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018264132853211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9830715755737403</v>
+        <v>0.9850242583860493</v>
       </c>
       <c r="D13">
-        <v>1.005551987477904</v>
+        <v>1.007303033447151</v>
       </c>
       <c r="E13">
-        <v>1.004027588425842</v>
+        <v>1.005616444172115</v>
       </c>
       <c r="F13">
-        <v>1.016882411136327</v>
+        <v>1.0181266847478</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039703820688444</v>
+        <v>1.040488019597838</v>
       </c>
       <c r="J13">
-        <v>1.013514754384909</v>
+        <v>1.015381230415766</v>
       </c>
       <c r="K13">
-        <v>1.020529908337555</v>
+        <v>1.022248075111791</v>
       </c>
       <c r="L13">
-        <v>1.019034254790496</v>
+        <v>1.020593152084093</v>
       </c>
       <c r="M13">
-        <v>1.03165019104816</v>
+        <v>1.032871758528306</v>
       </c>
       <c r="N13">
-        <v>1.008014816200401</v>
+        <v>1.011532872538169</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034717206618161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035682877499229</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018402113038938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9843084705176415</v>
+        <v>0.9861125234343721</v>
       </c>
       <c r="D14">
-        <v>1.006449470507165</v>
+        <v>1.008050607948341</v>
       </c>
       <c r="E14">
-        <v>1.005083282125369</v>
+        <v>1.006548280192769</v>
       </c>
       <c r="F14">
-        <v>1.017980821033283</v>
+        <v>1.019127192172132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040058034080302</v>
+        <v>1.040773296549762</v>
       </c>
       <c r="J14">
-        <v>1.014385536170883</v>
+        <v>1.016111169561442</v>
       </c>
       <c r="K14">
-        <v>1.021267586306971</v>
+        <v>1.022839053839547</v>
       </c>
       <c r="L14">
-        <v>1.019926811628386</v>
+        <v>1.021364561433501</v>
       </c>
       <c r="M14">
-        <v>1.03258796427027</v>
+        <v>1.033713700919544</v>
       </c>
       <c r="N14">
-        <v>1.008358346344486</v>
+        <v>1.011688431269536</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035632401560268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036522195907894</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018553558020714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9849331480526575</v>
+        <v>0.9866661556559089</v>
       </c>
       <c r="D15">
-        <v>1.006888691275317</v>
+        <v>1.008418582173344</v>
       </c>
       <c r="E15">
-        <v>1.005583921481028</v>
+        <v>1.006990430671729</v>
       </c>
       <c r="F15">
-        <v>1.018466598769878</v>
+        <v>1.019566713229044</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040214096533999</v>
+        <v>1.040897384435879</v>
       </c>
       <c r="J15">
-        <v>1.014791468028938</v>
+        <v>1.016449836948359</v>
       </c>
       <c r="K15">
-        <v>1.021610643534328</v>
+        <v>1.023112408345136</v>
       </c>
       <c r="L15">
-        <v>1.020329949262566</v>
+        <v>1.021710509059041</v>
       </c>
       <c r="M15">
-        <v>1.032978425480756</v>
+        <v>1.034058896446291</v>
       </c>
       <c r="N15">
-        <v>1.008508300027878</v>
+        <v>1.011744886937558</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035978664807066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03683265820446</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018618595570889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9880572087396315</v>
+        <v>0.9894682163085056</v>
       </c>
       <c r="D16">
-        <v>1.009022829130213</v>
+        <v>1.010228489796828</v>
       </c>
       <c r="E16">
-        <v>1.007953827417658</v>
+        <v>1.009098699608952</v>
       </c>
       <c r="F16">
-        <v>1.020609652435844</v>
+        <v>1.021502680040887</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040891300979063</v>
+        <v>1.04143303754252</v>
       </c>
       <c r="J16">
-        <v>1.016674477532458</v>
+        <v>1.018027864870762</v>
       </c>
       <c r="K16">
-        <v>1.023194857554463</v>
+        <v>1.02437934666304</v>
       </c>
       <c r="L16">
-        <v>1.022144682577053</v>
+        <v>1.023269393804364</v>
       </c>
       <c r="M16">
-        <v>1.03458088821358</v>
+        <v>1.035458684364195</v>
       </c>
       <c r="N16">
-        <v>1.009151612640626</v>
+        <v>1.011959946502456</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037206425460124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.037900246887349</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018895357171178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.989806123830376</v>
+        <v>0.9910619404452868</v>
       </c>
       <c r="D17">
-        <v>1.010190774076841</v>
+        <v>1.011237032239612</v>
       </c>
       <c r="E17">
-        <v>1.00921944083687</v>
+        <v>1.010239859949594</v>
       </c>
       <c r="F17">
-        <v>1.021673600073645</v>
+        <v>1.022468033282518</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041222498455233</v>
+        <v>1.041696580804524</v>
       </c>
       <c r="J17">
-        <v>1.017661753560118</v>
+        <v>1.018867981791849</v>
       </c>
       <c r="K17">
-        <v>1.024022450700075</v>
+        <v>1.025050863065071</v>
       </c>
       <c r="L17">
-        <v>1.023067728078811</v>
+        <v>1.024070698258222</v>
       </c>
       <c r="M17">
-        <v>1.035311992705716</v>
+        <v>1.036093260352336</v>
       </c>
       <c r="N17">
-        <v>1.009464574659869</v>
+        <v>1.012074112887386</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037654937620948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.038272523550162</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019030325200127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9905266495530062</v>
+        <v>0.9917388562524952</v>
       </c>
       <c r="D18">
-        <v>1.010625894541491</v>
+        <v>1.011626252497196</v>
       </c>
       <c r="E18">
-        <v>1.009626507941667</v>
+        <v>1.010614236432082</v>
       </c>
       <c r="F18">
-        <v>1.021859329090597</v>
+        <v>1.022627655250208</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041280653182835</v>
+        <v>1.041737928027086</v>
       </c>
       <c r="J18">
-        <v>1.017952388526642</v>
+        <v>1.019117633988502</v>
       </c>
       <c r="K18">
-        <v>1.024263697753591</v>
+        <v>1.025247274650774</v>
       </c>
       <c r="L18">
-        <v>1.023281118743055</v>
+        <v>1.024252235462094</v>
       </c>
       <c r="M18">
-        <v>1.035311116125351</v>
+        <v>1.036066911310106</v>
       </c>
       <c r="N18">
-        <v>1.009515292183891</v>
+        <v>1.012065860480688</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03741585286533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.03801342820775</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019048240912239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9903191021212465</v>
+        <v>0.9915772509010934</v>
       </c>
       <c r="D19">
-        <v>1.010402315151703</v>
+        <v>1.011450249061153</v>
       </c>
       <c r="E19">
-        <v>1.009254103935119</v>
+        <v>1.010282565127869</v>
       </c>
       <c r="F19">
-        <v>1.021243514525541</v>
+        <v>1.022043811430063</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041096628704414</v>
+        <v>1.041578617401982</v>
       </c>
       <c r="J19">
-        <v>1.017616099176897</v>
+        <v>1.018825767177946</v>
       </c>
       <c r="K19">
-        <v>1.02398028121394</v>
+        <v>1.025010721150278</v>
       </c>
       <c r="L19">
-        <v>1.02285129174297</v>
+        <v>1.023862533247585</v>
       </c>
       <c r="M19">
-        <v>1.034642729571375</v>
+        <v>1.035430024117068</v>
       </c>
       <c r="N19">
-        <v>1.009334774629306</v>
+        <v>1.011929058958274</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036560676657149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.037183361960601</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018960619618999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9875317132076588</v>
+        <v>0.9890806794687098</v>
       </c>
       <c r="D20">
-        <v>1.008351439843537</v>
+        <v>1.00970346177676</v>
       </c>
       <c r="E20">
-        <v>1.006733907454681</v>
+        <v>1.008004330637093</v>
       </c>
       <c r="F20">
-        <v>1.018453309748279</v>
+        <v>1.019445016973022</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040248426304992</v>
+        <v>1.040869412695902</v>
       </c>
       <c r="J20">
-        <v>1.015551873876924</v>
+        <v>1.017039110096687</v>
       </c>
       <c r="K20">
-        <v>1.022249011810097</v>
+        <v>1.023577806771682</v>
       </c>
       <c r="L20">
-        <v>1.020659373739906</v>
+        <v>1.021907878740846</v>
       </c>
       <c r="M20">
-        <v>1.032179259417338</v>
+        <v>1.033154354655898</v>
       </c>
       <c r="N20">
-        <v>1.008518294470656</v>
+        <v>1.011430517229113</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034081193951285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.034852884331393</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018583261224868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9815281429980621</v>
+        <v>0.9837345682348522</v>
       </c>
       <c r="D21">
-        <v>1.004202221092477</v>
+        <v>1.006214343563597</v>
       </c>
       <c r="E21">
-        <v>1.002071911572728</v>
+        <v>1.00388308470553</v>
       </c>
       <c r="F21">
-        <v>1.014134002246587</v>
+        <v>1.015554395977765</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038870646660921</v>
+        <v>1.03978633219152</v>
       </c>
       <c r="J21">
-        <v>1.01181899397661</v>
+        <v>1.013928440765198</v>
       </c>
       <c r="K21">
-        <v>1.019104416066059</v>
+        <v>1.021078932042929</v>
       </c>
       <c r="L21">
-        <v>1.017014136986203</v>
+        <v>1.018791262412788</v>
       </c>
       <c r="M21">
-        <v>1.028852459618241</v>
+        <v>1.030246958330725</v>
       </c>
       <c r="N21">
-        <v>1.007202086033559</v>
+        <v>1.010992374196825</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031407118614968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.032510784131881</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018020934089877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9777119976083305</v>
+        <v>0.9803399677328852</v>
       </c>
       <c r="D22">
-        <v>1.001576062455299</v>
+        <v>1.004011238475702</v>
       </c>
       <c r="E22">
-        <v>0.999136917808349</v>
+        <v>1.001294816952599</v>
       </c>
       <c r="F22">
-        <v>1.011441665834687</v>
+        <v>1.013137460903181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03799581575635</v>
+        <v>1.039100543642947</v>
       </c>
       <c r="J22">
-        <v>1.009462589095305</v>
+        <v>1.01196798636888</v>
       </c>
       <c r="K22">
-        <v>1.017116361764234</v>
+        <v>1.019503648576051</v>
       </c>
       <c r="L22">
-        <v>1.014725491936973</v>
+        <v>1.016840666832351</v>
       </c>
       <c r="M22">
-        <v>1.026789818351201</v>
+        <v>1.028453078644533</v>
       </c>
       <c r="N22">
-        <v>1.006375128645379</v>
+        <v>1.010715444586873</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029774653493379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.031091031225838</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017667056706073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9797440078920581</v>
+        <v>0.9821273339842272</v>
       </c>
       <c r="D23">
-        <v>1.002973927435804</v>
+        <v>1.005167206158111</v>
       </c>
       <c r="E23">
-        <v>1.000698800637909</v>
+        <v>1.002654592770319</v>
       </c>
       <c r="F23">
-        <v>1.012874134926871</v>
+        <v>1.014409371520675</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.03846257576591</v>
+        <v>1.039458341138164</v>
       </c>
       <c r="J23">
-        <v>1.010717397823165</v>
+        <v>1.012992983156336</v>
       </c>
       <c r="K23">
-        <v>1.018175248146739</v>
+        <v>1.020326534126981</v>
       </c>
       <c r="L23">
-        <v>1.015943936002992</v>
+        <v>1.017862047557889</v>
       </c>
       <c r="M23">
-        <v>1.027887787945664</v>
+        <v>1.029394350751863</v>
       </c>
       <c r="N23">
-        <v>1.00681553710745</v>
+        <v>1.010817054832013</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030643635453791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.031835994483861</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017850514244582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9875495328558859</v>
+        <v>0.9890997314106802</v>
       </c>
       <c r="D24">
-        <v>1.008353907612237</v>
+        <v>1.009707294881844</v>
       </c>
       <c r="E24">
-        <v>1.006718269684482</v>
+        <v>1.007990092633696</v>
       </c>
       <c r="F24">
-        <v>1.018400868137069</v>
+        <v>1.019393684952854</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040234849094635</v>
+        <v>1.040856876297267</v>
       </c>
       <c r="J24">
-        <v>1.0155354227321</v>
+        <v>1.017023932449974</v>
       </c>
       <c r="K24">
-        <v>1.022235890495777</v>
+        <v>1.023566057426213</v>
       </c>
       <c r="L24">
-        <v>1.020628423302834</v>
+        <v>1.021878331312728</v>
       </c>
       <c r="M24">
-        <v>1.032112370044288</v>
+        <v>1.033088575432561</v>
       </c>
       <c r="N24">
-        <v>1.008505507142648</v>
+        <v>1.011417310499496</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033987147481932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.034759755235101</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018576348375187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9962363070329969</v>
+        <v>0.9971336055244807</v>
       </c>
       <c r="D25">
-        <v>1.014358867795865</v>
+        <v>1.014996477142172</v>
       </c>
       <c r="E25">
-        <v>1.013454715975389</v>
+        <v>1.014198401814661</v>
       </c>
       <c r="F25">
-        <v>1.024597456485006</v>
+        <v>1.025171824149785</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042162830324539</v>
+        <v>1.042475850696718</v>
       </c>
       <c r="J25">
-        <v>1.020891001747385</v>
+        <v>1.021757821845023</v>
       </c>
       <c r="K25">
-        <v>1.02673829632344</v>
+        <v>1.027366368624282</v>
       </c>
       <c r="L25">
-        <v>1.025847694543147</v>
+        <v>1.026580232916322</v>
       </c>
       <c r="M25">
-        <v>1.036825562089362</v>
+        <v>1.037391554374843</v>
       </c>
       <c r="N25">
-        <v>1.010381586664611</v>
+        <v>1.012683672459273</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037717347244128</v>
+        <v>1.038165293786975</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019435588636179</v>
       </c>
     </row>
   </sheetData>
